--- a/PMS/Data/test_bap.xlsx
+++ b/PMS/Data/test_bap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jules\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Vicera\source\repos\PMS\PMS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>naem</t>
   </si>
   <si>
-    <t>legit</t>
-  </si>
-  <si>
     <t>asda</t>
   </si>
   <si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>Legitimate</t>
+  </si>
+  <si>
+    <t>Illegitimate</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,43 +439,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -480,40 +483,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="K2">
         <v>111.1</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -521,40 +524,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="K3">
         <v>111.1</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -562,40 +565,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="K4">
         <v>111.1</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
         <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
